--- a/Bases/IME_2010-2020.xlsx
+++ b/Bases/IME_2010-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvill\OneDrive\Escritorio\IM_Regiones\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C2CE3-9F03-4528-A332-B03422C316F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E72268-4105-4C38-B6F0-AEAF196F133B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B90DA85-213D-42A7-94AD-FF4C279E3AF4}"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0B90DA85-213D-42A7-94AD-FF4C279E3AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="IME_2010" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="96">
   <si>
     <t>CVE_ENT</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>IM_2020</t>
+  </si>
+  <si>
+    <t>LUGAR</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="###\ ###\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -526,7 +529,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -553,7 +556,7 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -916,7 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC50DF3A-03AE-4394-9593-5461600AC110}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" zeroHeight="1"/>
   <cols>
@@ -974,7 +979,9 @@
       <c r="O1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="14.55" customHeight="1">
       <c r="A2" s="11"/>
@@ -2665,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0201CE9-DA76-4FCB-9AD9-8CC843F859F5}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" zeroHeight="1"/>
@@ -2725,7 +2732,9 @@
       <c r="O1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="14.55" customHeight="1">
       <c r="A2" s="33"/>
@@ -4414,7 +4423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC75B4B3-FB2D-48C8-AA14-837CCB6BEF2B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25"/>
   <cols>
@@ -4471,7 +4482,9 @@
       <c r="O1" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="50"/>
+      <c r="P1" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" spans="1:16" ht="14.55" customHeight="1">
       <c r="A2" s="48"/>
